--- a/mypjt/dataFiles/USD.xlsx
+++ b/mypjt/dataFiles/USD.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>货币名称</t>
   </si>
@@ -62,6 +62,24 @@
   </si>
   <si>
     <t>57.1949</t>
+  </si>
+  <si>
+    <t>6.2604</t>
+  </si>
+  <si>
+    <t>2018-03-27 13:51:00</t>
+  </si>
+  <si>
+    <t>105.6540</t>
+  </si>
+  <si>
+    <t>0.7029</t>
+  </si>
+  <si>
+    <t>0.8033</t>
+  </si>
+  <si>
+    <t>57.1192</t>
   </si>
 </sst>
 </file>
@@ -397,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +489,61 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -482,7 +555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +579,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -517,7 +598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,6 +622,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -552,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,6 +665,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -587,7 +684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,6 +708,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -622,7 +727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -646,6 +751,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/mypjt/dataFiles/USD.xlsx
+++ b/mypjt/dataFiles/USD.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>货币名称</t>
   </si>
@@ -34,52 +34,34 @@
     <t>CNY</t>
   </si>
   <si>
-    <t>6.2748</t>
-  </si>
-  <si>
-    <t>2018-03-26 21:52:00</t>
+    <t>6.2449</t>
+  </si>
+  <si>
+    <t>2018-03-27 14:50:00</t>
   </si>
   <si>
     <t>JPY</t>
   </si>
   <si>
-    <t>105.1760</t>
+    <t>105.6600</t>
   </si>
   <si>
     <t>GBP</t>
   </si>
   <si>
-    <t>0.7038</t>
+    <t>0.7023</t>
   </si>
   <si>
     <t>EUR</t>
   </si>
   <si>
-    <t>0.8038</t>
+    <t>0.8015</t>
   </si>
   <si>
     <t>RUB</t>
   </si>
   <si>
-    <t>57.1949</t>
-  </si>
-  <si>
-    <t>6.2604</t>
-  </si>
-  <si>
-    <t>2018-03-27 13:51:00</t>
-  </si>
-  <si>
-    <t>105.6540</t>
-  </si>
-  <si>
-    <t>0.7029</t>
-  </si>
-  <si>
-    <t>0.8033</t>
-  </si>
-  <si>
-    <t>57.1192</t>
+    <t>57.0632</t>
   </si>
 </sst>
 </file>
@@ -415,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,61 +471,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -555,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,14 +506,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -598,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,14 +541,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -641,7 +552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,14 +576,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -684,7 +587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -708,14 +611,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -727,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -751,14 +646,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
